--- a/Nodeインストール.xlsx
+++ b/Nodeインストール.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="インストール手順" sheetId="1" r:id="rId1"/>
+    <sheet name="usr_lib64に追加したlib" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
@@ -54,10 +55,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>export NODE_HOME=/tmp/node</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/etc/profileに以下を追記</t>
     <rPh sb="13" eb="15">
       <t>イカ</t>
@@ -126,6 +123,163 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>export NODE_HOME=/sb/tmp/node</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libpixman-1.so.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→libpixman-1.so.0.32.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libcairo.so.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→libcairo.so.2.10800.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→libpng12.so.0.49.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libpangocairo-1.0.so.0</t>
+  </si>
+  <si>
+    <t>→libpangocairo-1.0.so.0.2800.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libpango-1.0.so.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→libpango-1.0.so.0.2800.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libjpeg.so.62</t>
+  </si>
+  <si>
+    <t>→libjpeg.so.62.0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libgif.so.4</t>
+  </si>
+  <si>
+    <t>→libgif.so.4.1.6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libfreetype.so.6</t>
+  </si>
+  <si>
+    <t>→libfreetype.so.6.3.22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libfontconfig.so.1</t>
+  </si>
+  <si>
+    <t>→libfontconfig.so.1.4.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libXrender.so.1</t>
+  </si>
+  <si>
+    <t>→libXrender.so.1.3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libX11.so.6</t>
+  </si>
+  <si>
+    <t>libpangoft2-1.0.so.0</t>
+  </si>
+  <si>
+    <t>→libX11.so.6.3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→libpangoft2-1.0.so.0.2800.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libSM.so.6</t>
+  </si>
+  <si>
+    <t>→libSM.so.6.0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libICE.so.6</t>
+  </si>
+  <si>
+    <t>→libICE.so.6.3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libxcb.so.1</t>
+  </si>
+  <si>
+    <t>→libxcb.so.1.1.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libXau.so.6</t>
+  </si>
+  <si>
+    <t>→libXau.so.6.0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>libpng12.so.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤所持</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>node_modulesインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/sb/tmp/nodejs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記フォルダを作成し齋藤所持のnode_modulesを配置</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -133,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,20 +632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q13"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69140625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1"/>
-    <col min="2" max="2" width="3.69140625" style="2"/>
-    <col min="3" max="16384" width="3.69140625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1"/>
+    <col min="2" max="2" width="3.6640625" style="2"/>
+    <col min="3" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,62 +653,262 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1"/>
+    <col min="2" max="2" width="3.6640625" style="2"/>
+    <col min="3" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
